--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="5">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="5">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="5">
-        <v>210</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>260</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="5">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="6">
-        <v>390</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="6">
-        <v>490</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="6">
-        <v>630</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>305</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
-        <v>365</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="6">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="6">
-        <v>94.99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="6">
-        <v>102.99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="6">
-        <v>37.99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="6">
-        <v>23.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="6">
-        <v>419.99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="6">
-        <v>94.99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PVC" sheetId="2" r:id="rId1"/>
-    <sheet name="Portas de Entrada" sheetId="1" r:id="rId2"/>
-    <sheet name="Aluminio" sheetId="3" r:id="rId3"/>
+    <sheet name="Homem" sheetId="2" r:id="rId1"/>
+    <sheet name="Mulher" sheetId="1" r:id="rId2"/>
+    <sheet name="Criança" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -900,7 +900,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Homem" sheetId="2" r:id="rId1"/>
     <sheet name="Mulher" sheetId="1" r:id="rId2"/>
-    <sheet name="Criança" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Código</t>
   </si>
@@ -85,60 +84,6 @@
     <t>Dell</t>
   </si>
   <si>
-    <t>MARS GAMING - BUNDLE - MARS GAMING - CAIXA MC0 VENTOINHA MF12G</t>
-  </si>
-  <si>
-    <t>ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul</t>
-  </si>
-  <si>
-    <t>ASUS UN65U-BM008M BGA 1356 2.40GHz i3-7100U Azul</t>
-  </si>
-  <si>
-    <t>COOLER MASTER - MASTER ATX MASTERCASE MAKER 5T PRETA SEM FONTE</t>
-  </si>
-  <si>
-    <t>NOX - Ark Gaming case</t>
-  </si>
-  <si>
-    <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Cinzento, Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS-1 Midi Tower Case - Black Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS3 Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool V3X Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Tacens AC017AD Mini-Torre Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -146,12 +91,6 @@
   </si>
   <si>
     <t>Madeira</t>
-  </si>
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>óxido de alumínio, eletricidade e carbono</t>
   </si>
 </sst>
 </file>
@@ -161,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +111,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF525250"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -214,12 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -583,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -594,9 +524,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
         <v>20</v>
       </c>
     </row>
@@ -605,9 +535,9 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
         <v>20</v>
       </c>
     </row>
@@ -616,9 +546,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
         <v>20</v>
       </c>
     </row>
@@ -627,9 +557,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4">
         <v>15</v>
       </c>
     </row>
@@ -638,9 +568,9 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
         <v>10</v>
       </c>
     </row>
@@ -649,9 +579,9 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
         <v>10</v>
       </c>
     </row>
@@ -662,7 +592,7 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>220</v>
       </c>
     </row>
@@ -673,7 +603,7 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>220</v>
       </c>
     </row>
@@ -684,7 +614,7 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>220</v>
       </c>
     </row>
@@ -695,7 +625,7 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>220</v>
       </c>
     </row>
@@ -706,7 +636,7 @@
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>220</v>
       </c>
     </row>
@@ -717,7 +647,7 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>220</v>
       </c>
     </row>
@@ -733,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -749,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -760,9 +690,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
         <v>100</v>
       </c>
     </row>
@@ -771,9 +701,9 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
         <v>120</v>
       </c>
     </row>
@@ -782,9 +712,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
         <v>90</v>
       </c>
     </row>
@@ -793,9 +723,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
         <v>150</v>
       </c>
     </row>
@@ -804,9 +734,9 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
         <v>120</v>
       </c>
     </row>
@@ -815,9 +745,9 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
         <v>110</v>
       </c>
     </row>
@@ -828,7 +758,7 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>600</v>
       </c>
     </row>
@@ -839,7 +769,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>65</v>
       </c>
     </row>
@@ -850,7 +780,7 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>420</v>
       </c>
     </row>
@@ -861,7 +791,7 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>315</v>
       </c>
     </row>
@@ -872,7 +802,7 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>575</v>
       </c>
     </row>
@@ -883,7 +813,7 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>145</v>
       </c>
     </row>
@@ -893,234 +823,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6">
-        <v>21.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <v>391.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6">
-        <v>350.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6">
-        <v>267.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6">
-        <v>115.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6">
-        <v>59.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6">
-        <v>78.989999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6">
-        <v>37.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6">
-        <v>51.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6">
-        <v>37.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="6">
-        <v>19.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>